--- a/resources/input/Properties.xlsx
+++ b/resources/input/Properties.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="50">
   <si>
     <t>Page</t>
   </si>
@@ -100,10 +100,70 @@
     <t>DepartDate</t>
   </si>
   <si>
-    <t>something</t>
-  </si>
-  <si>
-    <t>asjdbjkasdnajsn</t>
+    <t>SelectPage</t>
+  </si>
+  <si>
+    <t>ControlGroupSelectView_AvailabilityInputSelectView_RadioButtonMkt1Fare1</t>
+  </si>
+  <si>
+    <t>Plus</t>
+  </si>
+  <si>
+    <t>Max</t>
+  </si>
+  <si>
+    <t>Agree</t>
+  </si>
+  <si>
+    <t>SelectButton</t>
+  </si>
+  <si>
+    <t>Locator</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>summary-user-acknowledge-checkbox</t>
+  </si>
+  <si>
+    <t>ControlGroupSelectView_ButtonSubmit</t>
+  </si>
+  <si>
+    <t>cssSelector</t>
+  </si>
+  <si>
+    <t>button[data-for=bundlePlus1]</t>
+  </si>
+  <si>
+    <t>button[data-for=bundleMax1]</t>
+  </si>
+  <si>
+    <t>Starter</t>
+  </si>
+  <si>
+    <t>div[class=starterbtn-option]</t>
+  </si>
+  <si>
+    <t>ControlGroupSelectView_AvailabilityInputSelectView_RadioButtonMkt1Fare4</t>
+  </si>
+  <si>
+    <t>ControlGroupSelectView_AvailabilityInputSelectView_RadioButtonMkt1Fare7</t>
+  </si>
+  <si>
+    <t>ControlGroupSelectView_AvailabilityInputSelectView_RadioButtonMkt1Fare10</t>
+  </si>
+  <si>
+    <t>FlightChoice10</t>
+  </si>
+  <si>
+    <t>FlightChoice1</t>
+  </si>
+  <si>
+    <t>FlightChoice4</t>
+  </si>
+  <si>
+    <t>FlightChoice7</t>
   </si>
 </sst>
 </file>
@@ -472,10 +532,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J14"/>
+  <dimension ref="A1:J22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -499,7 +559,9 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1"/>
+      <c r="D1" s="1" t="s">
+        <v>34</v>
+      </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
@@ -517,6 +579,9 @@
       <c r="C2" t="s">
         <v>5</v>
       </c>
+      <c r="D2" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -528,6 +593,9 @@
       <c r="C3" t="s">
         <v>7</v>
       </c>
+      <c r="D3" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -539,6 +607,9 @@
       <c r="C4" t="s">
         <v>8</v>
       </c>
+      <c r="D4" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -550,6 +621,9 @@
       <c r="C5" t="s">
         <v>9</v>
       </c>
+      <c r="D5" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -561,6 +635,9 @@
       <c r="C6" t="s">
         <v>10</v>
       </c>
+      <c r="D6" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -572,6 +649,9 @@
       <c r="C7" t="s">
         <v>12</v>
       </c>
+      <c r="D7" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -583,6 +663,9 @@
       <c r="C8" t="s">
         <v>14</v>
       </c>
+      <c r="D8" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
@@ -594,6 +677,9 @@
       <c r="C9" t="s">
         <v>16</v>
       </c>
+      <c r="D9" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
@@ -605,6 +691,9 @@
       <c r="C10" t="s">
         <v>18</v>
       </c>
+      <c r="D10" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
@@ -616,6 +705,9 @@
       <c r="C11" t="s">
         <v>20</v>
       </c>
+      <c r="D11" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
@@ -627,6 +719,9 @@
       <c r="C12" t="s">
         <v>22</v>
       </c>
+      <c r="D12" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
@@ -638,19 +733,138 @@
       <c r="C13" t="s">
         <v>24</v>
       </c>
+      <c r="D13" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="B14" t="s">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="C14" t="s">
         <v>29</v>
       </c>
+      <c r="D14" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15" t="s">
+        <v>48</v>
+      </c>
+      <c r="C15" t="s">
+        <v>43</v>
+      </c>
+      <c r="D15" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>28</v>
+      </c>
+      <c r="B16" t="s">
+        <v>49</v>
+      </c>
+      <c r="C16" t="s">
+        <v>44</v>
+      </c>
+      <c r="D16" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>28</v>
+      </c>
+      <c r="B17" t="s">
+        <v>46</v>
+      </c>
+      <c r="C17" t="s">
+        <v>45</v>
+      </c>
+      <c r="D17" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>28</v>
+      </c>
+      <c r="B18" t="s">
+        <v>41</v>
+      </c>
+      <c r="C18" t="s">
+        <v>42</v>
+      </c>
+      <c r="D18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>28</v>
+      </c>
+      <c r="B19" t="s">
+        <v>30</v>
+      </c>
+      <c r="C19" t="s">
+        <v>39</v>
+      </c>
+      <c r="D19" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>28</v>
+      </c>
+      <c r="B20" t="s">
+        <v>31</v>
+      </c>
+      <c r="C20" t="s">
+        <v>40</v>
+      </c>
+      <c r="D20" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>28</v>
+      </c>
+      <c r="B21" t="s">
+        <v>32</v>
+      </c>
+      <c r="C21" t="s">
+        <v>36</v>
+      </c>
+      <c r="D21" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>28</v>
+      </c>
+      <c r="B22" t="s">
+        <v>33</v>
+      </c>
+      <c r="C22" t="s">
+        <v>37</v>
+      </c>
+      <c r="D22" t="s">
+        <v>35</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>